--- a/Excel Files/SubjectLists - EXCEL.xlsx
+++ b/Excel Files/SubjectLists - EXCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvir\Downloads\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DF949C-372E-4D6C-8D5F-238597ED67F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403705A9-BF25-42F2-B146-8054895123B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="564">
   <si>
     <t>!!!!!ΣΗΜΑΝΤΙΚΑ!!!!!</t>
   </si>
@@ -2497,9 +2497,6 @@
   </si>
   <si>
     <t>http://www.csd.uoc.gr/CSD/index.jsp?content=courses_catalog_new&amp;openmenu=demoAcc3&amp;lang=gr&amp;course=246</t>
-  </si>
-  <si>
-    <t>As determined by the respective Department</t>
   </si>
   <si>
     <t>Οπως καθορίζονται από το αντίστοιχο Τμήμα</t>
@@ -4719,8 +4716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4766,7 +4763,7 @@
     </row>
     <row r="4" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E4"/>
     </row>
@@ -4788,12 +4785,12 @@
     </row>
     <row r="8" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4808,27 +4805,27 @@
     </row>
     <row r="12" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="83" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4839,58 +4836,58 @@
         <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>550</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>551</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N17" s="15" t="s">
         <v>12</v>
       </c>
       <c r="O17" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="P17" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>555</v>
       </c>
       <c r="Q17" s="15" t="s">
         <v>13</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S17" s="15" t="s">
         <v>14</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>15</v>
@@ -13541,7 +13538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" s="13" t="s">
         <v>527</v>
       </c>
@@ -13555,10 +13552,10 @@
         <v>541</v>
       </c>
       <c r="E151" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="G151" s="19" t="s">
         <v>43</v>
